--- a/biology/Botanique/Ancolie_vulgaire/Ancolie_vulgaire.xlsx
+++ b/biology/Botanique/Ancolie_vulgaire/Ancolie_vulgaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aquilegia vulgaris
 L'ancolie commune (Aquilegia vulgaris), appelée aussi aiglantine, ancolie des jardins, cornette ou encore colombine, bonne-femme, bonnets de grand-mère et cinq-doigts, est une espèce de plante à fleurs de la famille des Ranunculaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace ramifiée, aux feuilles divisées, duveteuses, vert pâle, aux fleurs comportant des sépales pétaloïdes et des pétales en forme de cornet avec un éperon recourbé à l'arrière. Les fleurs généralement bleues peuvent être roses, pourpres ou violettes, parfois blanches.
 </t>
@@ -543,9 +557,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Moyen Âge, l'ancolie commune, surnommée " bonne-femme ", était considérée comme une plante magique aphrodisiaque. La plante fournissait des graines pour des parfums qui rendaient leurs porteuses irrésistibles. Quand elle était mâchée, les femmes étaient particulièrement bien disposées à l'amour[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, l'ancolie commune, surnommée " bonne-femme ", était considérée comme une plante magique aphrodisiaque. La plante fournissait des graines pour des parfums qui rendaient leurs porteuses irrésistibles. Quand elle était mâchée, les femmes étaient particulièrement bien disposées à l'amour.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs :
 Type d'inflorescence : cyme unipare hélicoïde
@@ -616,7 +634,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante ornementale présente dans de très nombreux jardins.
 Son utilisation médicinale est restreinte, elle contient de l'acide cyanhydrique qui la rend toxique.
@@ -648,7 +668,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ancolie supporte mal les grosses chaleurs. Dans les régions chaudes, il vaut donc mieux la planter à mi-ombre.
 Veiller à ne pas arroser le feuillage pour éviter l'apparition d'oïdium.
@@ -683,7 +705,9 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, cette espèce est protégée en région Nord-Pas-de-Calais (Article 1).
 </t>
@@ -714,7 +738,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aquilegia vulgarisforme rose.
